--- a/story/Main Story and Others 主线剧情等/guide 导航文字/l0-0/0_home_ui.xlsx
+++ b/story/Main Story and Others 主线剧情等/guide 导航文字/l0-0/0_home_ui.xlsx
@@ -44,11 +44,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sys", protectTime=1)] Even though your body is still back in Chernobog, I must say… welcome home to Rhodes Island. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sys")] You probably are not familiar with all of the Island’s features, so we’ll have to go over that.Some facilities are still undergoing repair, but the core features should be functional.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sys", protectTime=1)] Even though your body is still back in Chernobog, I must say... welcome home to Rhodes Island. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sys")] You probably are not familiar with all of the Island's features, so we'll have to go over that.Some facilities are still undergoing repair, but the core features should be functional.
 </t>
   </si>
   <si>
